--- a/english/note.xlsx
+++ b/english/note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\daily\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A77F152-EBB2-418C-B938-83A73D1FB0C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA538DAD-AB5F-4F0F-86F0-340801268A78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2170" windowWidth="13620" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文法" sheetId="1" r:id="rId1"/>
@@ -27,15 +27,14 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>remmber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>https://tw.englisher.info/2016/08/11/english-grammar-try-to-do-or-try-doing/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +47,14 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,14 +75,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -88,6 +99,288 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91441</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>179752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="圖片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7014F6E1-6084-4EB3-B23D-FBE7D871DC26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="4075" t="15064" r="35638" b="23077"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="184150"/>
+          <a:ext cx="5120641" cy="3126152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400162</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D55DEDB-1A80-4D6C-84A3-030083982E66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="32519" t="20005" r="36592" b="30141"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6197600" y="184150"/>
+          <a:ext cx="3194162" cy="3060700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形: 圓角 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3D0EDD-CF4F-4545-9BC9-1D229130EE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6127750" y="825500"/>
+          <a:ext cx="1936750" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線單箭頭接點 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C18C2BB-D492-4F91-9DB2-62770E7E44E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1612900" y="1000125"/>
+          <a:ext cx="4514850" cy="1054100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形: 圓角 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA83D6B9-F41D-4111-AB1A-7B416629F790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520700" y="1879600"/>
+          <a:ext cx="1092200" cy="349250"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,22 +646,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1">
+        <v>43878</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{E0E92AE1-72F8-4A12-A456-74499986B334}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/english/note.xlsx
+++ b/english/note.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\daily\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA538DAD-AB5F-4F0F-86F0-340801268A78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95F6B5C-74AE-4FAC-A1A7-CA52E0BDA46B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="-110" windowWidth="18380" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,6 +378,283 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261920</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="圖片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C52A7C-9FE9-4444-AD83-52F51D25F55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="20781" t="10248" r="36592" b="20175"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4051300"/>
+          <a:ext cx="4173520" cy="4051299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{174DC7A5-0FE7-4A5B-9A38-FE4FBA7D3DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="32310" t="21422" r="36739" b="9556"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5080000" y="4051300"/>
+          <a:ext cx="3181350" cy="4219157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="矩形: 圓角 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62459C1E-CA6B-4DDE-97F8-D663CA37092F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="660400" y="7035800"/>
+          <a:ext cx="4083050" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="矩形: 圓角 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3A7C56-7691-4A97-9039-4714A7CF002D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5022850" y="4635500"/>
+          <a:ext cx="3136900" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線單箭頭接點 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D0B1EA-EA0C-4A66-9385-32444E9E3409}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="1"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2701925" y="4813300"/>
+          <a:ext cx="2320925" cy="2222500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -648,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
